--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d0 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d0_st02.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d0 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d0_st02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>zh_CN</t>
   </si>
@@ -49,6 +49,14 @@
   </si>
   <si>
     <t xml:space="preserve">Accompanying May is Natalya, another member of the Ursus Student Self-government Group.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">숙소에서 자가치료를 시도하는 이스티나. 이때 마침 메이가 숙소를 방문하게 된다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">메이와 함께 온 건, 다름 아닌 우르수스 학생자치단의 또 다른 멤버, '나탈리야'였다.
 </t>
   </si>
 </sst>
@@ -438,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -452,7 +460,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d0 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d0_st02.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d0 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d0_st02.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Accompanying May is Natalya, another member of the Ursus Student Self-government Group.
+    <t xml:space="preserve">Accompanying May is Natalya, another member of the Ursus Student Self-Governing Group.
 </t>
   </si>
   <si>
